--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.806361333333333</v>
+        <v>1.75219</v>
       </c>
       <c r="H2">
-        <v>5.419084</v>
+        <v>5.25657</v>
       </c>
       <c r="I2">
-        <v>0.1438280610620411</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J2">
-        <v>0.1547213049676104</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.01333166666666667</v>
+        <v>0.6770596666666666</v>
       </c>
       <c r="N2">
-        <v>0.039995</v>
+        <v>2.031179</v>
       </c>
       <c r="O2">
-        <v>0.003064994513357115</v>
+        <v>0.6629178609124418</v>
       </c>
       <c r="P2">
-        <v>0.004188487926012003</v>
+        <v>0.7040015721662795</v>
       </c>
       <c r="Q2">
-        <v>0.02408180717555555</v>
+        <v>1.186337177336666</v>
       </c>
       <c r="R2">
-        <v>0.21673626458</v>
+        <v>10.67703459603</v>
       </c>
       <c r="S2">
-        <v>0.000440832218021948</v>
+        <v>0.08929176883360038</v>
       </c>
       <c r="T2">
-        <v>0.000648048317753657</v>
+        <v>0.09989659891963046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.806361333333333</v>
+        <v>1.75219</v>
       </c>
       <c r="H3">
-        <v>5.419084</v>
+        <v>5.25657</v>
       </c>
       <c r="I3">
-        <v>0.1438280610620411</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J3">
-        <v>0.1547213049676104</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.6770596666666666</v>
+        <v>0.165466</v>
       </c>
       <c r="N3">
-        <v>2.031179</v>
+        <v>0.496398</v>
       </c>
       <c r="O3">
-        <v>0.1556582695498485</v>
+        <v>0.1620098968733008</v>
       </c>
       <c r="P3">
-        <v>0.2127158074026537</v>
+        <v>0.1720503079345527</v>
       </c>
       <c r="Q3">
-        <v>1.223014402226222</v>
+        <v>0.28992787054</v>
       </c>
       <c r="R3">
-        <v>11.007129620036</v>
+        <v>2.60935083486</v>
       </c>
       <c r="S3">
-        <v>0.02238802709762727</v>
+        <v>0.02182193468200566</v>
       </c>
       <c r="T3">
-        <v>0.03291166730857745</v>
+        <v>0.02441363952192629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.806361333333333</v>
+        <v>1.75219</v>
       </c>
       <c r="H4">
-        <v>5.419084</v>
+        <v>5.25657</v>
       </c>
       <c r="I4">
-        <v>0.1438280610620411</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J4">
-        <v>0.1547213049676104</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.159092</v>
+        <v>0.178807</v>
       </c>
       <c r="N4">
-        <v>0.477276</v>
+        <v>0.357614</v>
       </c>
       <c r="O4">
-        <v>0.03657578000642656</v>
+        <v>0.1750722422142573</v>
       </c>
       <c r="P4">
-        <v>0.04998286694275046</v>
+        <v>0.1239481198991679</v>
       </c>
       <c r="Q4">
-        <v>0.2873776372426667</v>
+        <v>0.31330383733</v>
       </c>
       <c r="R4">
-        <v>2.586398735184</v>
+        <v>1.87982302398</v>
       </c>
       <c r="S4">
-        <v>0.005260623520156102</v>
+        <v>0.0235813682248038</v>
       </c>
       <c r="T4">
-        <v>0.007733414399404786</v>
+        <v>0.01758802268339951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.806361333333333</v>
+        <v>2.026462666666667</v>
       </c>
       <c r="H5">
-        <v>5.419084</v>
+        <v>6.079388</v>
       </c>
       <c r="I5">
-        <v>0.1438280610620411</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J5">
-        <v>0.1547213049676104</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.500171</v>
+        <v>0.6770596666666666</v>
       </c>
       <c r="N5">
-        <v>7.000342</v>
+        <v>2.031179</v>
       </c>
       <c r="O5">
-        <v>0.8047009559303677</v>
+        <v>0.6629178609124418</v>
       </c>
       <c r="P5">
-        <v>0.7331128377285839</v>
+        <v>0.7040015721662795</v>
       </c>
       <c r="Q5">
-        <v>6.322573554454666</v>
+        <v>1.372036137605778</v>
       </c>
       <c r="R5">
-        <v>37.935441326728</v>
+        <v>12.348325238452</v>
       </c>
       <c r="S5">
-        <v>0.1157385782262358</v>
+        <v>0.1032687299790099</v>
       </c>
       <c r="T5">
-        <v>0.1134281749418745</v>
+        <v>0.1155335484380146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>6.079388</v>
       </c>
       <c r="I6">
-        <v>0.1613532081222288</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J6">
-        <v>0.1735737709111781</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01333166666666667</v>
+        <v>0.165466</v>
       </c>
       <c r="N6">
-        <v>0.039995</v>
+        <v>0.496398</v>
       </c>
       <c r="O6">
-        <v>0.003064994513357115</v>
+        <v>0.1620098968733008</v>
       </c>
       <c r="P6">
-        <v>0.004188487926012003</v>
+        <v>0.1720503079345527</v>
       </c>
       <c r="Q6">
-        <v>0.02701612478444444</v>
+        <v>0.3353106716026667</v>
       </c>
       <c r="R6">
-        <v>0.24314512306</v>
+        <v>3.017796044424</v>
       </c>
       <c r="S6">
-        <v>0.0004945466976071999</v>
+        <v>0.02523775158374549</v>
       </c>
       <c r="T6">
-        <v>0.000727011643733843</v>
+        <v>0.02823513948181503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>6.079388</v>
       </c>
       <c r="I7">
-        <v>0.1613532081222288</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J7">
-        <v>0.1735737709111781</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.6770596666666666</v>
+        <v>0.178807</v>
       </c>
       <c r="N7">
-        <v>2.031179</v>
+        <v>0.357614</v>
       </c>
       <c r="O7">
-        <v>0.1556582695498485</v>
+        <v>0.1750722422142573</v>
       </c>
       <c r="P7">
-        <v>0.2127158074026537</v>
+        <v>0.1239481198991679</v>
       </c>
       <c r="Q7">
-        <v>1.372036137605778</v>
+        <v>0.3623457100386667</v>
       </c>
       <c r="R7">
-        <v>12.348325238452</v>
+        <v>2.174074260232</v>
       </c>
       <c r="S7">
-        <v>0.0251159611626227</v>
+        <v>0.02727259163474538</v>
       </c>
       <c r="T7">
-        <v>0.0369218848232945</v>
+        <v>0.02034109962298357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.026462666666667</v>
+        <v>4.488144</v>
       </c>
       <c r="H8">
-        <v>6.079388</v>
+        <v>13.464432</v>
       </c>
       <c r="I8">
-        <v>0.1613532081222288</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="J8">
-        <v>0.1735737709111781</v>
+        <v>0.3634650518941472</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.159092</v>
+        <v>0.6770596666666666</v>
       </c>
       <c r="N8">
-        <v>0.477276</v>
+        <v>2.031179</v>
       </c>
       <c r="O8">
-        <v>0.03657578000642656</v>
+        <v>0.6629178609124418</v>
       </c>
       <c r="P8">
-        <v>0.04998286694275046</v>
+        <v>0.7040015721662795</v>
       </c>
       <c r="Q8">
-        <v>0.3223939985653334</v>
+        <v>3.038741280592</v>
       </c>
       <c r="R8">
-        <v>2.901545987088</v>
+        <v>27.348671525328</v>
       </c>
       <c r="S8">
-        <v>0.005901619443609799</v>
+        <v>0.2287162445510536</v>
       </c>
       <c r="T8">
-        <v>0.008675714696204867</v>
+        <v>0.2558799679609779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.026462666666667</v>
+        <v>4.488144</v>
       </c>
       <c r="H9">
-        <v>6.079388</v>
+        <v>13.464432</v>
       </c>
       <c r="I9">
-        <v>0.1613532081222288</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="J9">
-        <v>0.1735737709111781</v>
+        <v>0.3634650518941472</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.500171</v>
+        <v>0.165466</v>
       </c>
       <c r="N9">
-        <v>7.000342</v>
+        <v>0.496398</v>
       </c>
       <c r="O9">
-        <v>0.8047009559303677</v>
+        <v>0.1620098968733008</v>
       </c>
       <c r="P9">
-        <v>0.7331128377285839</v>
+        <v>0.1720503079345527</v>
       </c>
       <c r="Q9">
-        <v>7.092965858449333</v>
+        <v>0.742635235104</v>
       </c>
       <c r="R9">
-        <v>42.55779515069599</v>
+        <v>6.683717115936</v>
       </c>
       <c r="S9">
-        <v>0.1298410808183891</v>
+        <v>0.05589575628866481</v>
       </c>
       <c r="T9">
-        <v>0.127249159747945</v>
+        <v>0.06253427410183619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.997459000000001</v>
+        <v>4.488144</v>
       </c>
       <c r="H10">
-        <v>8.992377000000001</v>
+        <v>13.464432</v>
       </c>
       <c r="I10">
-        <v>0.2386669312099415</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="J10">
-        <v>0.2567430776494193</v>
+        <v>0.3634650518941472</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.01333166666666667</v>
+        <v>0.178807</v>
       </c>
       <c r="N10">
-        <v>0.039995</v>
+        <v>0.357614</v>
       </c>
       <c r="O10">
-        <v>0.003064994513357115</v>
+        <v>0.1750722422142573</v>
       </c>
       <c r="P10">
-        <v>0.004188487926012003</v>
+        <v>0.1239481198991679</v>
       </c>
       <c r="Q10">
-        <v>0.03996112423500001</v>
+        <v>0.802511564208</v>
       </c>
       <c r="R10">
-        <v>0.359650118115</v>
+        <v>4.815069385248</v>
       </c>
       <c r="S10">
-        <v>0.0007315128346782505</v>
+        <v>0.06040245424865102</v>
       </c>
       <c r="T10">
-        <v>0.001075365280821755</v>
+        <v>0.04505080983133302</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.997459000000001</v>
+        <v>1.981064</v>
       </c>
       <c r="H11">
-        <v>8.992377000000001</v>
+        <v>3.962128</v>
       </c>
       <c r="I11">
-        <v>0.2386669312099415</v>
+        <v>0.152289168185153</v>
       </c>
       <c r="J11">
-        <v>0.2567430776494193</v>
+        <v>0.1069555001749241</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1122,27 +1122,27 @@
         <v>2.031179</v>
       </c>
       <c r="O11">
-        <v>0.1556582695498485</v>
+        <v>0.6629178609124418</v>
       </c>
       <c r="P11">
-        <v>0.2127158074026537</v>
+        <v>0.7040015721662795</v>
       </c>
       <c r="Q11">
-        <v>2.029458591387</v>
+        <v>1.341298531485333</v>
       </c>
       <c r="R11">
-        <v>18.265127322483</v>
+        <v>8.047791188911999</v>
       </c>
       <c r="S11">
-        <v>0.03715048151091222</v>
+        <v>0.1009552096134367</v>
       </c>
       <c r="T11">
-        <v>0.05461331105723843</v>
+        <v>0.07529684027497734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.997459000000001</v>
+        <v>1.981064</v>
       </c>
       <c r="H12">
-        <v>8.992377000000001</v>
+        <v>3.962128</v>
       </c>
       <c r="I12">
-        <v>0.2386669312099415</v>
+        <v>0.152289168185153</v>
       </c>
       <c r="J12">
-        <v>0.2567430776494193</v>
+        <v>0.1069555001749241</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.159092</v>
+        <v>0.165466</v>
       </c>
       <c r="N12">
-        <v>0.477276</v>
+        <v>0.496398</v>
       </c>
       <c r="O12">
-        <v>0.03657578000642656</v>
+        <v>0.1620098968733008</v>
       </c>
       <c r="P12">
-        <v>0.04998286694275046</v>
+        <v>0.1720503079345527</v>
       </c>
       <c r="Q12">
-        <v>0.4768717472280001</v>
+        <v>0.327798735824</v>
       </c>
       <c r="R12">
-        <v>4.291845725052001</v>
+        <v>1.966792414944</v>
       </c>
       <c r="S12">
-        <v>0.00872942917074376</v>
+        <v>0.0246723524325974</v>
       </c>
       <c r="T12">
-        <v>0.01283275508862317</v>
+        <v>0.01840172674038979</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.997459000000001</v>
+        <v>1.981064</v>
       </c>
       <c r="H13">
-        <v>8.992377000000001</v>
+        <v>3.962128</v>
       </c>
       <c r="I13">
-        <v>0.2386669312099415</v>
+        <v>0.152289168185153</v>
       </c>
       <c r="J13">
-        <v>0.2567430776494193</v>
+        <v>0.1069555001749241</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>3.500171</v>
+        <v>0.178807</v>
       </c>
       <c r="N13">
-        <v>7.000342</v>
+        <v>0.357614</v>
       </c>
       <c r="O13">
-        <v>0.8047009559303677</v>
+        <v>0.1750722422142573</v>
       </c>
       <c r="P13">
-        <v>0.7331128377285839</v>
+        <v>0.1239481198991679</v>
       </c>
       <c r="Q13">
-        <v>10.491619065489</v>
+        <v>0.354228110648</v>
       </c>
       <c r="R13">
-        <v>62.94971439293401</v>
+        <v>1.416912442592</v>
       </c>
       <c r="S13">
-        <v>0.1920555076936072</v>
+        <v>0.02666160613911888</v>
       </c>
       <c r="T13">
-        <v>0.1882216462227359</v>
+        <v>0.01325693315955696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.760707333333334</v>
+      </c>
+      <c r="H14">
+        <v>8.282122000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.2122222317885668</v>
+      </c>
+      <c r="J14">
+        <v>0.2235713992631593</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.6527075</v>
-      </c>
-      <c r="H14">
-        <v>5.305415</v>
-      </c>
-      <c r="I14">
-        <v>0.2112167533976597</v>
-      </c>
-      <c r="J14">
-        <v>0.1514759195824857</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.01333166666666667</v>
+        <v>0.6770596666666666</v>
       </c>
       <c r="N14">
-        <v>0.039995</v>
+        <v>2.031179</v>
       </c>
       <c r="O14">
-        <v>0.003064994513357115</v>
+        <v>0.6629178609124418</v>
       </c>
       <c r="P14">
-        <v>0.004188487926012003</v>
+        <v>0.7040015721662795</v>
       </c>
       <c r="Q14">
-        <v>0.03536501215416666</v>
+        <v>1.869163586870889</v>
       </c>
       <c r="R14">
-        <v>0.212190072925</v>
+        <v>16.822472281838</v>
       </c>
       <c r="S14">
-        <v>0.0006473781902929296</v>
+        <v>0.1406859079353411</v>
       </c>
       <c r="T14">
-        <v>0.0006344550602528062</v>
+        <v>0.1573946165726791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.6527075</v>
+        <v>2.760707333333334</v>
       </c>
       <c r="H15">
-        <v>5.305415</v>
+        <v>8.282122000000001</v>
       </c>
       <c r="I15">
-        <v>0.2112167533976597</v>
+        <v>0.2122222317885668</v>
       </c>
       <c r="J15">
-        <v>0.1514759195824857</v>
+        <v>0.2235713992631593</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.6770596666666666</v>
+        <v>0.165466</v>
       </c>
       <c r="N15">
-        <v>2.031179</v>
+        <v>0.496398</v>
       </c>
       <c r="O15">
-        <v>0.1556582695498485</v>
+        <v>0.1620098968733008</v>
       </c>
       <c r="P15">
-        <v>0.2127158074026537</v>
+        <v>0.1720503079345527</v>
       </c>
       <c r="Q15">
-        <v>1.796041255714167</v>
+        <v>0.4568031996173334</v>
       </c>
       <c r="R15">
-        <v>10.776247534285</v>
+        <v>4.111228796556</v>
       </c>
       <c r="S15">
-        <v>0.0328776343338168</v>
+        <v>0.03438210188628746</v>
       </c>
       <c r="T15">
-        <v>0.03222132253604788</v>
+        <v>0.03846552808858538</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,365 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.6527075</v>
+        <v>2.760707333333334</v>
       </c>
       <c r="H16">
-        <v>5.305415</v>
+        <v>8.282122000000001</v>
       </c>
       <c r="I16">
-        <v>0.2112167533976597</v>
+        <v>0.2122222317885668</v>
       </c>
       <c r="J16">
-        <v>0.1514759195824857</v>
+        <v>0.2235713992631593</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.159092</v>
+        <v>0.178807</v>
       </c>
       <c r="N16">
-        <v>0.477276</v>
+        <v>0.357614</v>
       </c>
       <c r="O16">
-        <v>0.03657578000642656</v>
+        <v>0.1750722422142573</v>
       </c>
       <c r="P16">
-        <v>0.04998286694275046</v>
+        <v>0.1239481198991679</v>
       </c>
       <c r="Q16">
-        <v>0.42202454159</v>
+        <v>0.4936337961513334</v>
       </c>
       <c r="R16">
-        <v>2.53214724954</v>
+        <v>2.961802776908</v>
       </c>
       <c r="S16">
-        <v>0.007725417505944451</v>
+        <v>0.03715422196693823</v>
       </c>
       <c r="T16">
-        <v>0.007571200733522149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.6527075</v>
-      </c>
-      <c r="H17">
-        <v>5.305415</v>
-      </c>
-      <c r="I17">
-        <v>0.2112167533976597</v>
-      </c>
-      <c r="J17">
-        <v>0.1514759195824857</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.500171</v>
-      </c>
-      <c r="N17">
-        <v>7.000342</v>
-      </c>
-      <c r="O17">
-        <v>0.8047009559303677</v>
-      </c>
-      <c r="P17">
-        <v>0.7331128377285839</v>
-      </c>
-      <c r="Q17">
-        <v>9.2849298629825</v>
-      </c>
-      <c r="R17">
-        <v>37.13971945193</v>
-      </c>
-      <c r="S17">
-        <v>0.1699663233676055</v>
-      </c>
-      <c r="T17">
-        <v>0.1110489412526628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>3.076181333333333</v>
-      </c>
-      <c r="H18">
-        <v>9.228543999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.2449350462081291</v>
-      </c>
-      <c r="J18">
-        <v>0.2634859268893066</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.01333166666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.039995</v>
-      </c>
-      <c r="O18">
-        <v>0.003064994513357115</v>
-      </c>
-      <c r="P18">
-        <v>0.004188487926012003</v>
-      </c>
-      <c r="Q18">
-        <v>0.04101062414222222</v>
-      </c>
-      <c r="R18">
-        <v>0.36909561728</v>
-      </c>
-      <c r="S18">
-        <v>0.000750724572756787</v>
-      </c>
-      <c r="T18">
-        <v>0.001103607623449942</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.076181333333333</v>
-      </c>
-      <c r="H19">
-        <v>9.228543999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.2449350462081291</v>
-      </c>
-      <c r="J19">
-        <v>0.2634859268893066</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.6770596666666666</v>
-      </c>
-      <c r="N19">
-        <v>2.031179</v>
-      </c>
-      <c r="O19">
-        <v>0.1556582695498485</v>
-      </c>
-      <c r="P19">
-        <v>0.2127158074026537</v>
-      </c>
-      <c r="Q19">
-        <v>2.082758308152889</v>
-      </c>
-      <c r="R19">
-        <v>18.744824773376</v>
-      </c>
-      <c r="S19">
-        <v>0.03812616544486956</v>
-      </c>
-      <c r="T19">
-        <v>0.05604762167749542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>3.076181333333333</v>
-      </c>
-      <c r="H20">
-        <v>9.228543999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.2449350462081291</v>
-      </c>
-      <c r="J20">
-        <v>0.2634859268893066</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.159092</v>
-      </c>
-      <c r="N20">
-        <v>0.477276</v>
-      </c>
-      <c r="O20">
-        <v>0.03657578000642656</v>
-      </c>
-      <c r="P20">
-        <v>0.04998286694275046</v>
-      </c>
-      <c r="Q20">
-        <v>0.4893958406826667</v>
-      </c>
-      <c r="R20">
-        <v>4.404562566144</v>
-      </c>
-      <c r="S20">
-        <v>0.008958690365972454</v>
-      </c>
-      <c r="T20">
-        <v>0.01316978202499549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.076181333333333</v>
-      </c>
-      <c r="H21">
-        <v>9.228543999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.2449350462081291</v>
-      </c>
-      <c r="J21">
-        <v>0.2634859268893066</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.500171</v>
-      </c>
-      <c r="N21">
-        <v>7.000342</v>
-      </c>
-      <c r="O21">
-        <v>0.8047009559303677</v>
-      </c>
-      <c r="P21">
-        <v>0.7331128377285839</v>
-      </c>
-      <c r="Q21">
-        <v>10.76716069367466</v>
-      </c>
-      <c r="R21">
-        <v>64.602964162048</v>
-      </c>
-      <c r="S21">
-        <v>0.1970994658245303</v>
-      </c>
-      <c r="T21">
-        <v>0.1931649155633657</v>
+        <v>0.0277112546018948</v>
       </c>
     </row>
   </sheetData>
